--- a/state_transition_table.xlsx
+++ b/state_transition_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\GitHub\RISC_MulticycleProcessor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9896000E-4E71-4F5C-ACDC-008B121247A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B09E37-0B98-4B5D-8C3F-3C6DEB37691C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="804" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="50">
   <si>
     <t>S0</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Opcode &lt;= 1100</t>
   </si>
   <si>
-    <t>Opcode &lt;= 1001 or 1011</t>
-  </si>
-  <si>
     <t>Opcode &lt;= 0000</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>Opcode &lt;= (0001 or 0010 or 0000 &amp;&amp; (C1' x C0' + C1' x C' x Z' + C1 x C0 + C1 x C) )   or Opcode&lt;= 0000 or 0111 or 0101 or 1011   -----C, Z are flags and C1, C0 are condn in Instruction</t>
+  </si>
+  <si>
+    <t>Opcode &lt;= 0001</t>
   </si>
 </sst>
 </file>
@@ -535,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:G42"/>
+  <dimension ref="C1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -594,7 +594,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
@@ -606,7 +606,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
@@ -618,7 +618,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
@@ -630,7 +630,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
@@ -666,7 +666,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.25">
@@ -678,7 +678,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
@@ -702,7 +702,7 @@
         <v>23</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.25">
@@ -714,7 +714,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.25">
@@ -726,7 +726,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
@@ -735,10 +735,10 @@
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
@@ -774,7 +774,7 @@
         <v>14</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
@@ -786,7 +786,7 @@
         <v>4</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
@@ -834,7 +834,7 @@
         <v>17</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
@@ -939,22 +939,22 @@
         <v>18</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
@@ -963,34 +963,34 @@
         <v>20</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>2</v>
@@ -999,13 +999,13 @@
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.25">
@@ -1014,21 +1014,22 @@
         <v>22</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D41" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
@@ -1036,9 +1037,20 @@
         <v>23</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>25</v>
       </c>
     </row>
